--- a/Practo/target/test-classes/Excel/TestData.xlsx
+++ b/Practo/target/test-classes/Excel/TestData.xlsx
@@ -8,30 +8,57 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyamaa\SpritPracto\Practo\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD0B322-F4DC-4F9D-8F38-007B310B8A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11912E1B-9C49-428F-B21A-D58E77DBE671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LabTests" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>TestName</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Thyroid Profile</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Booking Confirmed</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>Error Message Displayed</t>
+  </si>
+  <si>
+    <t>Full Body Checkup</t>
+  </si>
+  <si>
+    <t>packageName</t>
+  </si>
+  <si>
+    <t>Diabetes Package</t>
   </si>
 </sst>
 </file>
@@ -371,28 +398,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>9876543219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
